--- a/posesiones/1381284.xlsx
+++ b/posesiones/1381284.xlsx
@@ -1802,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2096,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>18</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>8</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>19</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>16</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>25</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>7</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>4</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>7</v>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3372,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R35">
         <v>19</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3475,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R37">
         <v>8</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3716,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R43">
         <v>15</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3869,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R45">
         <v>20</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47">
         <v>13</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R48">
         <v>16</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4125,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R50">
         <v>9</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R54">
         <v>23</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R59">
         <v>6</v>
@@ -4616,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R60">
         <v>10</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R64">
         <v>26</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R71">
         <v>21</v>
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R72">
         <v>19</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R74">
         <v>7</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R76">
         <v>12</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R77">
         <v>10</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R79">
         <v>14</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>23</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5769,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R83">
         <v>14</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R85">
         <v>7</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R87">
         <v>24</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R89">
         <v>20</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91">
         <v>19</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R101">
         <v>7</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6889,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R106">
         <v>4</v>
@@ -6942,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R107">
         <v>14</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R109">
         <v>19</v>
@@ -7095,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7145,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R111">
         <v>13</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R115">
         <v>30</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7442,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R117">
         <v>21</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R119">
         <v>26</v>
@@ -7589,10 +7589,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7821,10 +7821,10 @@
         <v>1</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R126">
         <v>15</v>
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8074,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R130">
         <v>27</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8174,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R132">
         <v>17</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R134">
         <v>20</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R136">
         <v>6</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8477,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R138">
         <v>20</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8580,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R140">
         <v>14</v>
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8683,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R142">
         <v>12</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R144">
         <v>9</v>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8880,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9118,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R151">
         <v>21</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R153">
         <v>21</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9321,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R155">
         <v>8</v>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R157">
         <v>21</v>
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R158">
         <v>18</v>
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9762,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R164">
         <v>31</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9865,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R166">
         <v>14</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10338,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R176">
         <v>16</v>
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10488,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R179">
         <v>30</v>
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10632,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10823,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R186">
         <v>0</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10926,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R188">
         <v>20</v>
@@ -10979,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R189">
         <v>22</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11079,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R191">
         <v>21</v>
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11179,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R193">
         <v>23</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R195">
         <v>7</v>
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11382,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R197">
         <v>18</v>
@@ -11435,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R198">
         <v>25</v>
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11582,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11632,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R202">
         <v>25</v>
@@ -11685,7 +11685,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R203">
         <v>16</v>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11782,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11923,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12064,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12114,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R212">
         <v>11</v>
@@ -12164,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12211,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R214">
         <v>15</v>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R217">
         <v>21</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R219">
         <v>15</v>
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R221">
         <v>25</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12702,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12749,7 +12749,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12843,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13078,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13172,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13222,7 +13222,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R235">
         <v>15</v>
@@ -13266,10 +13266,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13410,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13504,7 +13504,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13645,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13780,10 +13780,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13833,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R248">
         <v>15</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14030,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R252">
         <v>23</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14127,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14177,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14224,7 +14224,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14274,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14324,7 +14324,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R258">
         <v>21</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14421,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14471,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R261">
         <v>18</v>
@@ -14521,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14571,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R263">
         <v>11</v>
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14721,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R266">
         <v>7</v>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14821,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R268">
         <v>21</v>
@@ -14871,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14921,7 +14921,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R270">
         <v>14</v>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15024,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R272">
         <v>21</v>
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R273">
         <v>28</v>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15177,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R275">
         <v>28</v>
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15280,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R277">
         <v>13</v>
@@ -15333,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R278">
         <v>11</v>
@@ -15386,7 +15386,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R279">
         <v>23</v>
@@ -15436,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15577,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15624,7 +15624,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15718,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15768,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R287">
         <v>24</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15868,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R289">
         <v>20</v>
@@ -15918,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15968,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R291">
         <v>20</v>
@@ -16018,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16065,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R295">
         <v>19</v>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16268,7 +16268,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R297">
         <v>18</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16365,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16415,7 +16415,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R300">
         <v>22</v>
@@ -16465,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16515,7 +16515,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R302">
         <v>15</v>
@@ -16565,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16662,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R305">
         <v>15</v>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16762,7 +16762,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R307">
         <v>17</v>
@@ -16815,7 +16815,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16865,7 +16865,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R309">
         <v>7</v>
@@ -16918,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R310">
         <v>9</v>
@@ -16971,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17018,7 +17018,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17068,7 +17068,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17118,7 +17118,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R314">
         <v>17</v>
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17218,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R316">
         <v>19</v>
@@ -17271,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R317">
         <v>26</v>
@@ -17324,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17374,7 +17374,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R319">
         <v>21</v>
@@ -17424,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17518,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17565,7 +17565,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17756,7 +17756,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R327">
         <v>16</v>
@@ -17806,7 +17806,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17853,7 +17853,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17903,7 +17903,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R330">
         <v>0</v>
@@ -17956,7 +17956,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R331">
         <v>13</v>
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18059,7 +18059,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R333">
         <v>17</v>
@@ -18109,7 +18109,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18159,7 +18159,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R335">
         <v>12</v>
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18262,7 +18262,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R337">
         <v>7</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18359,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18500,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18597,7 +18597,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R344">
         <v>10</v>
@@ -18650,7 +18650,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R345">
         <v>2</v>
@@ -18694,10 +18694,10 @@
         <v>1</v>
       </c>
       <c r="P346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18744,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18791,7 +18791,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18926,10 +18926,10 @@
         <v>1</v>
       </c>
       <c r="P351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18979,7 +18979,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R352">
         <v>16</v>
@@ -19029,7 +19029,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19079,7 +19079,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19129,7 +19129,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R355">
         <v>32</v>
@@ -19179,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19226,7 +19226,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19273,7 +19273,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19320,7 +19320,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19367,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19414,7 +19414,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19508,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19555,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19605,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19655,7 +19655,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R366">
         <v>31</v>
@@ -19708,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19758,7 +19758,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R368">
         <v>15</v>
@@ -19808,7 +19808,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19855,7 +19855,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19952,7 +19952,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R372">
         <v>22</v>
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20099,7 +20099,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R375">
         <v>20</v>
@@ -20149,7 +20149,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20196,7 +20196,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20243,7 +20243,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20290,7 +20290,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20387,7 +20387,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20437,7 +20437,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R382">
         <v>34</v>
@@ -20490,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20537,7 +20537,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20584,7 +20584,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20631,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20678,7 +20678,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20728,7 +20728,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R388">
         <v>33</v>
@@ -20775,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20822,7 +20822,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20869,7 +20869,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20919,7 +20919,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R392">
         <v>14</v>
@@ -20969,7 +20969,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21019,7 +21019,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R394">
         <v>15</v>
@@ -21069,7 +21069,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21163,7 +21163,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21216,7 +21216,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R398">
         <v>14</v>
@@ -21266,7 +21266,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21313,7 +21313,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21360,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21410,7 +21410,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R402">
         <v>23</v>
@@ -21463,7 +21463,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R403">
         <v>21</v>
@@ -21516,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21566,7 +21566,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R405">
         <v>24</v>
@@ -21619,7 +21619,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R406">
         <v>15</v>
@@ -21672,7 +21672,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R407">
         <v>18</v>
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21775,7 +21775,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R409">
         <v>20</v>
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21872,7 +21872,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21922,7 +21922,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R412">
         <v>14</v>
@@ -21972,7 +21972,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22022,7 +22022,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R414">
         <v>14</v>
@@ -22075,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22122,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22169,7 +22169,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R417">
         <v>27</v>
@@ -22219,7 +22219,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22266,7 +22266,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22313,7 +22313,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22360,7 +22360,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22410,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R422">
         <v>12</v>
@@ -22463,7 +22463,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R423">
         <v>24</v>
@@ -22513,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22563,7 +22563,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R425">
         <v>14</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22657,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22704,7 +22704,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22754,7 +22754,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R429">
         <v>21</v>
@@ -22807,7 +22807,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R431">
         <v>18</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22951,7 +22951,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23045,7 +23045,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23092,7 +23092,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23142,7 +23142,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R437">
         <v>13</v>
@@ -23192,7 +23192,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23286,7 +23286,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23333,7 +23333,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23380,7 +23380,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23477,7 +23477,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R444">
         <v>29</v>
@@ -23524,7 +23524,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23574,7 +23574,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R446">
         <v>9</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23765,7 +23765,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23812,7 +23812,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23859,7 +23859,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23909,7 +23909,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R453">
         <v>1</v>
@@ -23962,7 +23962,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24009,7 +24009,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24153,7 +24153,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R458">
         <v>5</v>
@@ -24200,7 +24200,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24247,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24391,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R463">
         <v>12</v>
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24538,7 +24538,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R466">
         <v>7</v>
@@ -24585,7 +24585,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24632,7 +24632,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24679,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24726,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24820,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24870,7 +24870,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R473">
         <v>5</v>
@@ -24923,7 +24923,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R474">
         <v>4</v>
@@ -24967,10 +24967,10 @@
         <v>1</v>
       </c>
       <c r="P475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q475">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25011,7 +25011,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
